--- a/db/db_analysis/results/query_execution_times_4-8-2021-03-21.xlsx
+++ b/db/db_analysis/results/query_execution_times_4-8-2021-03-21.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dsghrg/workarea/work/zhaw_repos/s8/ba/releo/db/db_analysis/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493CF3C8-D71F-2941-8A2D-91D4166606D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804CACEC-B982-F74A-906A-315054AB1FE0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="500" windowWidth="67860" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="query_execution_times_4-8-2021-" sheetId="1" r:id="rId1"/>
@@ -15975,16 +15975,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>351118</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>52294</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>149412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>581711</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>39090</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>267946</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>136207</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16018,16 +16018,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>380252</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>888252</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>157628</xdr:rowOff>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>141941</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>186765</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>134470</xdr:rowOff>
+      <xdr:rowOff>14940</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25031,8 +25031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A8" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -25257,7 +25257,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="409.6">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -26050,9 +26050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4:P34"/>
-    </sheetView>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -29192,12 +29190,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
   </cols>
